--- a/Documentation/Gantt Chart/Grant Chart - Fabio's Draft Plan_V2.xlsx
+++ b/Documentation/Gantt Chart/Grant Chart - Fabio's Draft Plan_V2.xlsx
@@ -349,7 +349,7 @@
                   <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44005</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43997</c:v>
@@ -471,10 +471,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -516,11 +516,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="302597544"/>
-        <c:axId val="302597936"/>
+        <c:axId val="327941184"/>
+        <c:axId val="327950872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302597544"/>
+        <c:axId val="327941184"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -563,7 +563,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302597936"/>
+        <c:crossAx val="327950872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302597936"/>
+        <c:axId val="327950872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44063"/>
@@ -624,7 +624,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302597544"/>
+        <c:crossAx val="327941184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1239,7 +1239,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,14 +1719,14 @@
         <v>44005</v>
       </c>
       <c r="C7" s="12">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="C8" s="10">
         <v>44058</v>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
